--- a/VAV Schedules (Linked to AHU Psych).xlsx
+++ b/VAV Schedules (Linked to AHU Psych).xlsx
@@ -2,43 +2,55 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PsychroCalc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git Projects\PsychroCalc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD2616C-756D-4E1F-992F-A0107256C701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12108442-78A0-471E-9090-EA329C5D869D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{85367B3E-6A42-4F49-80C6-AE77A4A5F86F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{EA7F84B4-1563-4817-A618-E949D0281635}"/>
   </bookViews>
   <sheets>
-    <sheet name="AHU02_VAV_SCHEDULES" sheetId="3" r:id="rId1"/>
-    <sheet name="AHU1_VAV_SCHEDULES" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="AHU04_VAV_SCHEDULES" sheetId="5" r:id="rId1"/>
+    <sheet name="AHU03_VAV_SCHEDULES" sheetId="4" r:id="rId2"/>
+    <sheet name="AHU2_VAV_SCHEDULES" sheetId="3" r:id="rId3"/>
+    <sheet name="AHU001_VAV_SCHEDULES" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_CAV1" localSheetId="1">#REF!</definedName>
     <definedName name="_CAV1" localSheetId="0">#REF!</definedName>
+    <definedName name="_CAV1" localSheetId="2">#REF!</definedName>
     <definedName name="_CAV1">#REF!</definedName>
+    <definedName name="_CAV1." localSheetId="1">#REF!</definedName>
     <definedName name="_CAV1." localSheetId="0">#REF!</definedName>
+    <definedName name="_CAV1." localSheetId="2">#REF!</definedName>
     <definedName name="_CAV1.">#REF!</definedName>
-    <definedName name="_CAV2" localSheetId="0">#REF!</definedName>
+    <definedName name="_CAV2" localSheetId="2">#REF!</definedName>
     <definedName name="_CAV2">#REF!</definedName>
     <definedName name="_CAV3">#REF!</definedName>
     <definedName name="_CAV4">#REF!</definedName>
+    <definedName name="AHU_1AC_AV" localSheetId="1">#REF!</definedName>
     <definedName name="AHU_1AC_AV" localSheetId="0">#REF!</definedName>
+    <definedName name="AHU_1AC_AV" localSheetId="2">#REF!</definedName>
     <definedName name="AHU_1AC_AV">#REF!</definedName>
+    <definedName name="CAV_1A_SCHEDULE" localSheetId="1">#REF!</definedName>
     <definedName name="CAV_1A_SCHEDULE" localSheetId="0">#REF!</definedName>
+    <definedName name="CAV_1A_SCHEDULE" localSheetId="2">#REF!</definedName>
     <definedName name="CAV_1A_SCHEDULE">#REF!</definedName>
     <definedName name="CAV_1B_SCHEDULE">#REF!</definedName>
     <definedName name="CAV_1C_SCHEDULE">#REF!</definedName>
     <definedName name="CAV_2_SCHEDULE">#REF!</definedName>
     <definedName name="CAV_3_SCHEDULE">#REF!</definedName>
     <definedName name="FCU">#REF!</definedName>
+    <definedName name="VENTILATION_SCHEDULE_AHU_3" localSheetId="1">#REF!</definedName>
     <definedName name="VENTILATION_SCHEDULE_AHU_3" localSheetId="0">#REF!</definedName>
+    <definedName name="VENTILATION_SCHEDULE_AHU_3" localSheetId="2">#REF!</definedName>
     <definedName name="VENTILATION_SCHEDULE_AHU_3">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -64,10 +76,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={21D2773C-A002-4184-B7A1-1318EF206BB6}</author>
+    <author>tc={EF51094E-4C9D-4BB4-8B0F-02D543FD2A07}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{21D2773C-A002-4184-B7A1-1318EF206BB6}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{EF51094E-4C9D-4BB4-8B0F-02D543FD2A07}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -82,10 +94,46 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={1B2E6C3D-292F-4998-99C6-56C1C4DA2CAA}</author>
+    <author>tc={594EA495-EDFE-4657-B9FA-9E4D880F01AB}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{1B2E6C3D-292F-4998-99C6-56C1C4DA2CAA}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{594EA495-EDFE-4657-B9FA-9E4D880F01AB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Increase or decrease number of rows in this table to match the number of zones.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={5EE386CB-0590-413C-9D95-B267FCE822D6}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{5EE386CB-0590-413C-9D95-B267FCE822D6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Increase or decrease number of rows in this table to match the number of zones.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={A5D488A4-F612-4EEF-A5DA-F9DBC3BF5F1B}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A5D488A4-F612-4EEF-A5DA-F9DBC3BF5F1B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -98,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="25">
   <si>
     <t>ZONE</t>
   </si>
@@ -194,11 +242,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -216,6 +264,12 @@
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -342,9 +396,2687 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{A912BAB3-E41E-40D9-A34F-F7DD5099BE26}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{516C8CA9-0CA3-4772-8B3D-1C42AEA20BEB}"/>
   </cellStyles>
-  <dxfs count="88">
+  <dxfs count="176">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3048,8 +5780,10 @@
       <sheetName val="62.1_MULTI_ZONE"/>
       <sheetName val="VAV_SCHEDULES"/>
       <sheetName val="Room Temperature"/>
-      <sheetName val="AHU1"/>
-      <sheetName val="AHU02"/>
+      <sheetName val="AHU001"/>
+      <sheetName val="AHU2"/>
+      <sheetName val="AHU03"/>
+      <sheetName val="AHU04"/>
       <sheetName val="AHU_SCHEDULES"/>
       <sheetName val="CAV_SAMPLE"/>
       <sheetName val="62.1_SINGLE_ZONE"/>
@@ -3087,7 +5821,9 @@
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
-      <sheetData sheetId="15">
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17">
         <row r="9">
           <cell r="B9">
             <v>1</v>
@@ -3162,66 +5898,66 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Rushikesh Patil" id="{C2F3BE3D-2303-4857-905B-C9C4B59741FC}" userId="S::rdp352@nyu.edu::e20300c4-5136-4b7e-8e5f-b0b27a3a3193" providerId="AD"/>
+  <person displayName="Rushikesh Patil" id="{61290AA8-7CA1-4FCC-8E27-54D3C47D99F4}" userId="S::rdp352@nyu.edu::e20300c4-5136-4b7e-8e5f-b0b27a3a3193" providerId="AD"/>
 </personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C721449-5EA4-46E6-9C64-60C108C1D58B}" name="AHU02_VAV_table" displayName="AHU02_VAV_table" ref="A1:S4" totalsRowCount="1" headerRowDxfId="87" dataDxfId="85" totalsRowDxfId="83" headerRowBorderDxfId="86" tableBorderDxfId="84" totalsRowBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5B4F2192-9678-47B0-9938-E23DD61EB0F5}" name="AHU04_VAV_table" displayName="AHU04_VAV_table" ref="A1:S4" totalsRowCount="1" headerRowDxfId="43" dataDxfId="42" totalsRowDxfId="41" headerRowBorderDxfId="39" tableBorderDxfId="40" totalsRowBorderDxfId="38">
   <autoFilter ref="A1:S3" xr:uid="{13D566E9-CE9D-4920-9557-440C01DE1A40}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{67195487-380D-4A6B-B9C1-377BC93F20BF}" name="ZONE" totalsRowLabel="Total" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{2D0EB767-23B3-4757-8E34-60EE7A8F054E}" name="BASIS OF DESIGN _x000a_MANUFACTURER" dataDxfId="79" totalsRowDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{AB984DA2-CC38-41CE-8642-A2FA61FE764D}" name="DESCRIPTION" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="18" xr3:uid="{31344BC4-7082-461E-BE64-5DE821A0EA85}" name="MIN VAV_x000a_(CFM)" dataDxfId="75" totalsRowDxfId="74">
-      <calculatedColumnFormula>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU02_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MIN SA(CFM)])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{FD0D7286-A11D-4F02-8010-839EBF1CA0A9}" name="ZONE" totalsRowLabel="Total" dataDxfId="36" totalsRowDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{224B30C6-FD7B-429C-910E-0FED01228CCE}" name="BASIS OF DESIGN _x000a_MANUFACTURER" dataDxfId="34" totalsRowDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{C65D52AE-E994-4705-A6D2-F7AEDFA1AFB2}" name="DESCRIPTION" dataDxfId="32" totalsRowDxfId="33"/>
+    <tableColumn id="18" xr3:uid="{390DEB45-85B3-4A35-A993-C05896A8261B}" name="MIN VAV_x000a_(CFM)" dataDxfId="30" totalsRowDxfId="31">
+      <calculatedColumnFormula>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU04_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MIN SA(CFM)])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{A15172E5-3F0A-405D-88BE-6DDD7D1D48BE}" name="MAX VAV_x000a_(CFM)" dataDxfId="73" totalsRowDxfId="72">
-      <calculatedColumnFormula>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU02_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MAX SA(CFM)])</calculatedColumnFormula>
+    <tableColumn id="20" xr3:uid="{261B6FD6-C9BC-4CF9-880B-0C6E6C0E9029}" name="MAX VAV_x000a_(CFM)" dataDxfId="28" totalsRowDxfId="29">
+      <calculatedColumnFormula>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU04_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MAX SA(CFM)])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6A08F227-5E6F-4F2F-9981-FE49190C2FAD}" name="VAV INLET SIZE_x000a_(IN)" dataDxfId="71" totalsRowDxfId="70">
-      <calculatedColumnFormula>IFERROR((VLOOKUP(AHU02_VAV_table[[#This Row],[MAX VAV
+    <tableColumn id="5" xr3:uid="{5BC2CCD2-DA60-43AE-9C23-BDC099BB2687}" name="VAV INLET SIZE_x000a_(IN)" dataDxfId="26" totalsRowDxfId="27">
+      <calculatedColumnFormula>IFERROR((VLOOKUP(AHU04_VAV_table[[#This Row],[MAX VAV
 (CFM)]],'[1]DO NOT TOUCH'!$B$9:$C$14,2,TRUE)),"TBD")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{379F4870-B6B7-44F6-815C-638895BC6362}" name="MAX TOTAL VAV PD _x000a_(IN W.G.)" dataDxfId="69" totalsRowDxfId="68">
+    <tableColumn id="6" xr3:uid="{D6302D66-35D7-4717-852C-5A06DFA16E52}" name="MAX TOTAL VAV PD _x000a_(IN W.G.)" dataDxfId="24" totalsRowDxfId="25">
       <calculatedColumnFormula>G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{BBF29572-9EED-43B5-9219-804C8AD6F7C6}" name="HEATING AIRFLOW _x000a_(CFM)" dataDxfId="67" totalsRowDxfId="66">
-      <calculatedColumnFormula>AHU02_VAV_table[[#This Row],[MIN VAV
+    <tableColumn id="19" xr3:uid="{C74C4263-E495-4FAD-A7E2-B682D801BC04}" name="HEATING AIRFLOW _x000a_(CFM)" dataDxfId="22" totalsRowDxfId="23">
+      <calculatedColumnFormula>AHU04_VAV_table[[#This Row],[MIN VAV
 (CFM)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{E6376183-84AE-49C1-903D-7A1B2245D19F}" name="EWT" dataDxfId="65" totalsRowDxfId="64">
+    <tableColumn id="7" xr3:uid="{44D082AA-61AB-40AC-96D3-E8841C2F0D28}" name="EWT" dataDxfId="20" totalsRowDxfId="21">
       <calculatedColumnFormula>[1]INPUT_OUTPUTS!$C$16</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0A1EE9FA-3297-4F81-852D-BF0DD2A9897A}" name="DESIGN _x000a_LWT" dataDxfId="63" totalsRowDxfId="62">
+    <tableColumn id="8" xr3:uid="{13204E39-950F-4079-B8F7-FA907B7D548F}" name="DESIGN _x000a_LWT" dataDxfId="18" totalsRowDxfId="19">
       <calculatedColumnFormula>[1]INPUT_OUTPUTS!$C$17</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3053B8E1-9FA5-42D3-A709-28BA8B16D47A}" name="EAT" dataDxfId="61" totalsRowDxfId="60">
+    <tableColumn id="9" xr3:uid="{2336B960-48F4-4FF7-8182-ED0A2E42B8FF}" name="EAT" dataDxfId="16" totalsRowDxfId="17">
       <calculatedColumnFormula>K1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4A35EA69-08E6-437E-AEA1-23F7ADC18F4B}" name="DESIGN _x000a_LAT" dataDxfId="59" totalsRowDxfId="58">
+    <tableColumn id="10" xr3:uid="{D1F22BF4-A43F-456D-8B28-E50F95F5E60A}" name="DESIGN _x000a_LAT" dataDxfId="14" totalsRowDxfId="15">
       <calculatedColumnFormula>L1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{56F6E78F-37BC-422A-B56A-DB7D29B85C5A}" name="MIN MBH" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56">
-      <calculatedColumnFormula>MROUND((1.08*(L2-K2)*AHU02_VAV_table[[#This Row],[HEATING AIRFLOW 
+    <tableColumn id="11" xr3:uid="{DE3382D3-8226-45D0-9EE2-6A8F3F369AD3}" name="MIN MBH" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="13">
+      <calculatedColumnFormula>MROUND((1.08*(L2-K2)*AHU04_VAV_table[[#This Row],[HEATING AIRFLOW 
 (CFM)]])/1000,0.1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{E8EB06D9-DA4F-44D5-A349-59D043A35159}" name="AGPM" dataDxfId="55" totalsRowDxfId="54">
+    <tableColumn id="12" xr3:uid="{4CB744C5-B8FC-4D3B-A7B6-064481D3A4EA}" name="AGPM" dataDxfId="10" totalsRowDxfId="11">
       <calculatedColumnFormula>(M2*1000)/(500*(I2-J2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{23F32BB1-0EC0-40B3-AE4E-8175C6FE3B9E}" name="GPM" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="13" xr3:uid="{62DFDFDC-5C47-40C3-9DA5-25E4FDE81E45}" name="GPM" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(N2&lt;0.5,0.5,N2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{CF237C8E-A85D-46FD-AC65-5CC444505C6B}" name="MAX WATER _x000a_PD (FT)" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="14" xr3:uid="{0F48F5BB-4D4B-4E77-A549-1F096B1AC4A2}" name="MAX WATER _x000a_PD (FT)" dataDxfId="6" totalsRowDxfId="7">
       <calculatedColumnFormula>P1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{D41853E6-86E2-45C6-9860-BB5AAAFDA062}" name="OPER _x000a_WEIGHT_x000a_(LBS)" dataDxfId="49" totalsRowDxfId="48">
+    <tableColumn id="15" xr3:uid="{BF0258FB-D906-4B4B-9565-94E7F16C3B67}" name="OPER _x000a_WEIGHT_x000a_(LBS)" dataDxfId="4" totalsRowDxfId="5">
       <calculatedColumnFormula>IFERROR((_xlfn.XLOOKUP(F2,'[1]DO NOT TOUCH'!$C$9:$C$14,'[1]DO NOT TOUCH'!$D$9:$D$14,)),"TBD")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{A60F4A53-9272-4570-938A-DCD0E5025583}" name="MTG _x000a_DETAIL" dataDxfId="47" totalsRowDxfId="46">
+    <tableColumn id="16" xr3:uid="{28661ED8-B955-40A7-9509-C72CEC662DDD}" name="MTG _x000a_DETAIL" dataDxfId="2" totalsRowDxfId="3">
       <calculatedColumnFormula>[1]INPUT_OUTPUTS!$C$19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{760DE25C-0FD7-4612-A70F-32CBC2522B12}" name="REMARKS" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="17" xr3:uid="{044A599C-8BE4-4C04-9C43-3986DAC7A5AB}" name="REMARKS" dataDxfId="0" totalsRowDxfId="1">
       <calculatedColumnFormula>S1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3230,61 +5966,187 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F5264AD6-5C65-425B-AAED-D034A1DB66A8}" name="AHU1_VAV_table" displayName="AHU1_VAV_table" ref="A1:S4" totalsRowCount="1" headerRowDxfId="43" dataDxfId="41" totalsRowDxfId="39" headerRowBorderDxfId="42" tableBorderDxfId="40" totalsRowBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{75C2658A-BEF2-4019-963E-90B71848790F}" name="AHU03_VAV_table" displayName="AHU03_VAV_table" ref="A1:S4" totalsRowCount="1" headerRowDxfId="175" dataDxfId="173" totalsRowDxfId="171" headerRowBorderDxfId="174" tableBorderDxfId="172" totalsRowBorderDxfId="170">
   <autoFilter ref="A1:S3" xr:uid="{13D566E9-CE9D-4920-9557-440C01DE1A40}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{474C197A-C234-432B-AA1D-993071F90132}" name="ZONE" totalsRowLabel="Total" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{3717253B-17FE-4E63-9D8F-C8B6ADAED0D2}" name="BASIS OF DESIGN _x000a_MANUFACTURER" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{B978E179-A93F-4DEB-965C-BBF4617BA2C4}" name="DESCRIPTION" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="18" xr3:uid="{A74CD951-9C68-47A5-AC2D-00869F72686E}" name="MIN VAV_x000a_(CFM)" dataDxfId="31" totalsRowDxfId="30">
-      <calculatedColumnFormula>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU1_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MIN SA(CFM)])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{76941024-37A0-4C7C-BDCB-4112C9710805}" name="ZONE" totalsRowLabel="Total" dataDxfId="169" totalsRowDxfId="168"/>
+    <tableColumn id="2" xr3:uid="{3FFE0782-9EF6-4D1D-8F4A-B2B09279EE2D}" name="BASIS OF DESIGN _x000a_MANUFACTURER" dataDxfId="167" totalsRowDxfId="166"/>
+    <tableColumn id="3" xr3:uid="{46B0BE63-88B0-4EF5-9F95-8B8FCCFD37EB}" name="DESCRIPTION" dataDxfId="165" totalsRowDxfId="164"/>
+    <tableColumn id="18" xr3:uid="{853F259A-76DC-46E5-AB0A-F15AD039C02E}" name="MIN VAV_x000a_(CFM)" dataDxfId="163" totalsRowDxfId="162">
+      <calculatedColumnFormula>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU03_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MIN SA(CFM)])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{29708E2E-73A6-4D64-9534-B9A664F6E940}" name="MAX VAV_x000a_(CFM)" dataDxfId="29" totalsRowDxfId="28">
-      <calculatedColumnFormula>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU1_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MAX SA(CFM)])</calculatedColumnFormula>
+    <tableColumn id="20" xr3:uid="{52DA3A32-8B3C-4D4E-A03E-AF32E485EAA4}" name="MAX VAV_x000a_(CFM)" dataDxfId="161" totalsRowDxfId="160">
+      <calculatedColumnFormula>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU03_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MAX SA(CFM)])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1A39995C-7944-45FF-86E1-1DFF3AFA8E16}" name="VAV INLET SIZE_x000a_(IN)" dataDxfId="27" totalsRowDxfId="26">
-      <calculatedColumnFormula>IFERROR((VLOOKUP(AHU1_VAV_table[[#This Row],[MAX VAV
+    <tableColumn id="5" xr3:uid="{AAFC7FF2-8471-4767-BD6C-CA555EF9E841}" name="VAV INLET SIZE_x000a_(IN)" dataDxfId="159" totalsRowDxfId="158">
+      <calculatedColumnFormula>IFERROR((VLOOKUP(AHU03_VAV_table[[#This Row],[MAX VAV
 (CFM)]],'[1]DO NOT TOUCH'!$B$9:$C$14,2,TRUE)),"TBD")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{03B0CEB9-2ADE-4900-AD88-0FE2E50DB138}" name="MAX TOTAL VAV PD _x000a_(IN W.G.)" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="6" xr3:uid="{C530F67B-A48C-4B54-9B71-D3FA5B78ABD2}" name="MAX TOTAL VAV PD _x000a_(IN W.G.)" dataDxfId="157" totalsRowDxfId="156">
       <calculatedColumnFormula>G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{1A0CA69F-93C5-4CB9-A3B4-25F18F7364C1}" name="HEATING AIRFLOW _x000a_(CFM)" dataDxfId="23" totalsRowDxfId="22">
-      <calculatedColumnFormula>AHU1_VAV_table[[#This Row],[MIN VAV
+    <tableColumn id="19" xr3:uid="{B6B305D4-BFEB-4463-82DB-BBB43B5EB21E}" name="HEATING AIRFLOW _x000a_(CFM)" dataDxfId="155" totalsRowDxfId="154">
+      <calculatedColumnFormula>AHU03_VAV_table[[#This Row],[MIN VAV
 (CFM)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F170BFA1-3AAB-4626-B2DA-BAF59BAB70AE}" name="EWT" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="7" xr3:uid="{212A88C1-BE55-46D0-BA62-F80B7BE77D14}" name="EWT" dataDxfId="153" totalsRowDxfId="152">
       <calculatedColumnFormula>[1]INPUT_OUTPUTS!$C$16</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{38BDFA6D-BE08-498D-89FF-0FB29813512B}" name="DESIGN _x000a_LWT" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="8" xr3:uid="{A69B8B93-684E-48F2-97FB-386343D8B20B}" name="DESIGN _x000a_LWT" dataDxfId="151" totalsRowDxfId="150">
       <calculatedColumnFormula>[1]INPUT_OUTPUTS!$C$17</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{89568833-6BBB-491F-ACCD-4310CC8149CF}" name="EAT" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="9" xr3:uid="{1323CEB2-5A36-452A-A79C-EBA0DF012B67}" name="EAT" dataDxfId="149" totalsRowDxfId="148">
       <calculatedColumnFormula>K1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{093A0C03-5EB0-48B7-9032-C63C0168222F}" name="DESIGN _x000a_LAT" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="10" xr3:uid="{75A3C472-96E5-4A40-91F1-67AE544E7B6B}" name="DESIGN _x000a_LAT" dataDxfId="147" totalsRowDxfId="146">
       <calculatedColumnFormula>L1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{FDE681DE-518C-4752-B7F5-4AA38C61D356}" name="MIN MBH" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
-      <calculatedColumnFormula>MROUND((1.08*(L2-K2)*AHU1_VAV_table[[#This Row],[HEATING AIRFLOW 
+    <tableColumn id="11" xr3:uid="{AA0639DA-2E73-470E-BE42-2CB1F53AC735}" name="MIN MBH" totalsRowFunction="sum" dataDxfId="145" totalsRowDxfId="144">
+      <calculatedColumnFormula>MROUND((1.08*(L2-K2)*AHU03_VAV_table[[#This Row],[HEATING AIRFLOW 
 (CFM)]])/1000,0.1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{616A8FCA-2579-43D4-A70A-B8DB2D98C05D}" name="AGPM" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="12" xr3:uid="{BF756650-88ED-4689-A596-9BCC27038E99}" name="AGPM" dataDxfId="143" totalsRowDxfId="142">
       <calculatedColumnFormula>(M2*1000)/(500*(I2-J2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{B111C020-587E-4DB0-908F-5815FD9A9FE0}" name="GPM" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="13" xr3:uid="{4FC577F6-6FF6-41E0-9458-05392AE95678}" name="GPM" totalsRowFunction="sum" dataDxfId="141" totalsRowDxfId="140">
       <calculatedColumnFormula>IF(N2&lt;0.5,0.5,N2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{9F30155F-2ABE-4279-AA28-67A9A8E89141}" name="MAX WATER _x000a_PD (FT)" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="14" xr3:uid="{3CDD9510-E9B1-4C57-8097-74E1EBA3A2CC}" name="MAX WATER _x000a_PD (FT)" dataDxfId="139" totalsRowDxfId="138">
       <calculatedColumnFormula>P1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{C7ABE952-C073-47CD-84BA-65B744CFF0D6}" name="OPER _x000a_WEIGHT_x000a_(LBS)" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="15" xr3:uid="{3D3724F8-2B53-4C37-83BB-912178C329A1}" name="OPER _x000a_WEIGHT_x000a_(LBS)" dataDxfId="137" totalsRowDxfId="136">
       <calculatedColumnFormula>IFERROR((_xlfn.XLOOKUP(F2,'[1]DO NOT TOUCH'!$C$9:$C$14,'[1]DO NOT TOUCH'!$D$9:$D$14,)),"TBD")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{8D8EF55F-CEC7-4615-B365-263CCEF35D00}" name="MTG _x000a_DETAIL" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="16" xr3:uid="{4B9BD3E4-B1C6-4FA4-AFCF-F46CCE695336}" name="MTG _x000a_DETAIL" dataDxfId="135" totalsRowDxfId="134">
       <calculatedColumnFormula>[1]INPUT_OUTPUTS!$C$19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{0C26A643-6F53-42DA-B5E2-386B815D651E}" name="REMARKS" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="17" xr3:uid="{E8A76A66-7345-465A-B06C-58DE996E9C08}" name="REMARKS" dataDxfId="133" totalsRowDxfId="132">
+      <calculatedColumnFormula>S1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{515B2EA5-E686-476C-B6C2-E6C010BB2FAF}" name="AHU2_VAV_table" displayName="AHU2_VAV_table" ref="A1:S4" totalsRowCount="1" headerRowDxfId="131" dataDxfId="129" totalsRowDxfId="127" headerRowBorderDxfId="130" tableBorderDxfId="128" totalsRowBorderDxfId="126">
+  <autoFilter ref="A1:S3" xr:uid="{13D566E9-CE9D-4920-9557-440C01DE1A40}"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{3DF634E5-F2E7-430A-8169-38B4FC806079}" name="ZONE" totalsRowLabel="Total" dataDxfId="125" totalsRowDxfId="124"/>
+    <tableColumn id="2" xr3:uid="{8F6ADBAB-AD27-44E4-8BBA-EF7465BD28E4}" name="BASIS OF DESIGN _x000a_MANUFACTURER" dataDxfId="123" totalsRowDxfId="122"/>
+    <tableColumn id="3" xr3:uid="{794E1B82-C6C9-4EA7-95DC-DFB10AECE03C}" name="DESCRIPTION" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="18" xr3:uid="{69646AEC-BABB-4F02-9687-351A66033EBC}" name="MIN VAV_x000a_(CFM)" dataDxfId="119" totalsRowDxfId="118">
+      <calculatedColumnFormula>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU2_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MIN SA(CFM)])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{D2EC673B-BBF3-4FEA-8B0A-1D002065D068}" name="MAX VAV_x000a_(CFM)" dataDxfId="117" totalsRowDxfId="116">
+      <calculatedColumnFormula>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU2_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MAX SA(CFM)])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{6F42D123-9B88-4DDC-AA51-29E29DFCE886}" name="VAV INLET SIZE_x000a_(IN)" dataDxfId="115" totalsRowDxfId="114">
+      <calculatedColumnFormula>IFERROR((VLOOKUP(AHU2_VAV_table[[#This Row],[MAX VAV
+(CFM)]],'[1]DO NOT TOUCH'!$B$9:$C$14,2,TRUE)),"TBD")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{88ABF257-5E8C-42A9-B63C-ECF5A90CDB3D}" name="MAX TOTAL VAV PD _x000a_(IN W.G.)" dataDxfId="113" totalsRowDxfId="112">
+      <calculatedColumnFormula>G1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{F82FA66A-FF47-4C49-BC39-E44002C9A035}" name="HEATING AIRFLOW _x000a_(CFM)" dataDxfId="111" totalsRowDxfId="110">
+      <calculatedColumnFormula>AHU2_VAV_table[[#This Row],[MIN VAV
+(CFM)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{18B60348-A9AD-456E-A388-13ED586BCBE3}" name="EWT" dataDxfId="109" totalsRowDxfId="108">
+      <calculatedColumnFormula>[1]INPUT_OUTPUTS!$C$16</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{5DEDF0D4-2275-4FB9-A9BE-2F10FA580820}" name="DESIGN _x000a_LWT" dataDxfId="107" totalsRowDxfId="106">
+      <calculatedColumnFormula>[1]INPUT_OUTPUTS!$C$17</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{09A23FCA-9531-46F5-80E5-7FCDF3C9D3B6}" name="EAT" dataDxfId="105" totalsRowDxfId="104">
+      <calculatedColumnFormula>K1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{71B02AFB-CA2A-48C8-983A-111BBA20A664}" name="DESIGN _x000a_LAT" dataDxfId="103" totalsRowDxfId="102">
+      <calculatedColumnFormula>L1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{B5EF0E5A-C65D-415C-81FB-B0F58B60A0D2}" name="MIN MBH" totalsRowFunction="sum" dataDxfId="101" totalsRowDxfId="100">
+      <calculatedColumnFormula>MROUND((1.08*(L2-K2)*AHU2_VAV_table[[#This Row],[HEATING AIRFLOW 
+(CFM)]])/1000,0.1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{D4C73FB5-961B-44AD-BEF6-05585D19A103}" name="AGPM" dataDxfId="99" totalsRowDxfId="98">
+      <calculatedColumnFormula>(M2*1000)/(500*(I2-J2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{FBC51079-9F46-4706-918C-A8C71D232304}" name="GPM" totalsRowFunction="sum" dataDxfId="97" totalsRowDxfId="96">
+      <calculatedColumnFormula>IF(N2&lt;0.5,0.5,N2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{681F97BF-7031-4F8F-A91F-4834D5940C5E}" name="MAX WATER _x000a_PD (FT)" dataDxfId="95" totalsRowDxfId="94">
+      <calculatedColumnFormula>P1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{EEECFB29-7971-45AF-9D0D-C45DA50D74FA}" name="OPER _x000a_WEIGHT_x000a_(LBS)" dataDxfId="93" totalsRowDxfId="92">
+      <calculatedColumnFormula>IFERROR((_xlfn.XLOOKUP(F2,'[1]DO NOT TOUCH'!$C$9:$C$14,'[1]DO NOT TOUCH'!$D$9:$D$14,)),"TBD")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{EFFE63C4-292E-4B65-9480-4A6B0AF1D0B3}" name="MTG _x000a_DETAIL" dataDxfId="91" totalsRowDxfId="90">
+      <calculatedColumnFormula>[1]INPUT_OUTPUTS!$C$19</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{2C0C927C-27F7-4624-9727-8A464D3BF76E}" name="REMARKS" dataDxfId="89" totalsRowDxfId="88">
+      <calculatedColumnFormula>S1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96722CBA-F1D5-46EE-BC62-B1EB18DB327B}" name="AHU001_VAV_table" displayName="AHU001_VAV_table" ref="A1:S4" totalsRowCount="1" headerRowDxfId="87" dataDxfId="85" totalsRowDxfId="83" headerRowBorderDxfId="86" tableBorderDxfId="84" totalsRowBorderDxfId="82">
+  <autoFilter ref="A1:S3" xr:uid="{13D566E9-CE9D-4920-9557-440C01DE1A40}"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{35DF0060-165A-4562-A986-E081A9A5D64F}" name="ZONE" totalsRowLabel="Total" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{254FAC60-514E-420E-89BF-5D2B86B09258}" name="BASIS OF DESIGN _x000a_MANUFACTURER" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{8BDCE84F-1CA2-4EB0-9804-7039A2B28E40}" name="DESCRIPTION" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="18" xr3:uid="{01991D39-4ADD-47B6-97B8-D780E13ADFB5}" name="MIN VAV_x000a_(CFM)" dataDxfId="75" totalsRowDxfId="74">
+      <calculatedColumnFormula>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU001_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MIN SA(CFM)])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{2A12AFD2-8BB7-44F4-BA8D-98C7CA0E3DE5}" name="MAX VAV_x000a_(CFM)" dataDxfId="73" totalsRowDxfId="72">
+      <calculatedColumnFormula>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU001_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MAX SA(CFM)])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{773FA164-5A72-42D2-8AC9-EC3CC90EBFF4}" name="VAV INLET SIZE_x000a_(IN)" dataDxfId="71" totalsRowDxfId="70">
+      <calculatedColumnFormula>IFERROR((VLOOKUP(AHU001_VAV_table[[#This Row],[MAX VAV
+(CFM)]],'[1]DO NOT TOUCH'!$B$9:$C$14,2,TRUE)),"TBD")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{68A90B10-99D7-40CC-BEEC-F60E7B307B8F}" name="MAX TOTAL VAV PD _x000a_(IN W.G.)" dataDxfId="69" totalsRowDxfId="68">
+      <calculatedColumnFormula>G1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{28B0983E-5227-482A-8498-138C1BFF0C82}" name="HEATING AIRFLOW _x000a_(CFM)" dataDxfId="67" totalsRowDxfId="66">
+      <calculatedColumnFormula>AHU001_VAV_table[[#This Row],[MIN VAV
+(CFM)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{EF932130-7A25-406C-9B7F-7B85077C8230}" name="EWT" dataDxfId="65" totalsRowDxfId="64">
+      <calculatedColumnFormula>[1]INPUT_OUTPUTS!$C$16</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{441B4E43-7B48-4840-9AE5-E6B7290B206B}" name="DESIGN _x000a_LWT" dataDxfId="63" totalsRowDxfId="62">
+      <calculatedColumnFormula>[1]INPUT_OUTPUTS!$C$17</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{C4CAFE64-3954-4C1B-8D86-B012470ECBF6}" name="EAT" dataDxfId="61" totalsRowDxfId="60">
+      <calculatedColumnFormula>K1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{6D8764FC-17F0-4B05-B202-E9F232561015}" name="DESIGN _x000a_LAT" dataDxfId="59" totalsRowDxfId="58">
+      <calculatedColumnFormula>L1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{7B6495E6-41F2-4A95-9782-06CDAAEC7C06}" name="MIN MBH" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56">
+      <calculatedColumnFormula>MROUND((1.08*(L2-K2)*AHU001_VAV_table[[#This Row],[HEATING AIRFLOW 
+(CFM)]])/1000,0.1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{E8ADE4A6-5A78-406A-A565-480C89D24803}" name="AGPM" dataDxfId="55" totalsRowDxfId="54">
+      <calculatedColumnFormula>(M2*1000)/(500*(I2-J2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{42A0E030-22DD-4849-9DBC-3FEE0F7529A4}" name="GPM" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52">
+      <calculatedColumnFormula>IF(N2&lt;0.5,0.5,N2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{8D5E5E39-10FE-4ACA-9BB6-B1E2A7F5E7BA}" name="MAX WATER _x000a_PD (FT)" dataDxfId="51" totalsRowDxfId="50">
+      <calculatedColumnFormula>P1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{E2058ECC-73FE-46C5-8AD1-CCFDCC41B4E6}" name="OPER _x000a_WEIGHT_x000a_(LBS)" dataDxfId="49" totalsRowDxfId="48">
+      <calculatedColumnFormula>IFERROR((_xlfn.XLOOKUP(F2,'[1]DO NOT TOUCH'!$C$9:$C$14,'[1]DO NOT TOUCH'!$D$9:$D$14,)),"TBD")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{2F576A9E-7660-4B0F-9F99-ABC26D965901}" name="MTG _x000a_DETAIL" dataDxfId="47" totalsRowDxfId="46">
+      <calculatedColumnFormula>[1]INPUT_OUTPUTS!$C$19</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{8323CF90-8657-4C49-B28B-120AEF8CEF50}" name="REMARKS" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula>S1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3303,39 +6165,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3387,7 +6249,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3498,6 +6360,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -3506,13 +6375,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3577,31 +6439,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3609,7 +6451,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2023-01-20T03:02:14.75" personId="{C2F3BE3D-2303-4857-905B-C9C4B59741FC}" id="{21D2773C-A002-4184-B7A1-1318EF206BB6}">
+  <threadedComment ref="A1" dT="2023-01-20T03:02:14.75" personId="{61290AA8-7CA1-4FCC-8E27-54D3C47D99F4}" id="{EF51094E-4C9D-4BB4-8B0F-02D543FD2A07}">
     <text>Increase or decrease number of rows in this table to match the number of zones.</text>
   </threadedComment>
 </ThreadedComments>
@@ -3617,48 +6459,64 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2023-01-20T03:02:14.75" personId="{C2F3BE3D-2303-4857-905B-C9C4B59741FC}" id="{1B2E6C3D-292F-4998-99C6-56C1C4DA2CAA}">
+  <threadedComment ref="A1" dT="2023-01-20T03:02:14.75" personId="{61290AA8-7CA1-4FCC-8E27-54D3C47D99F4}" id="{594EA495-EDFE-4657-B9FA-9E4D880F01AB}">
+    <text>Increase or decrease number of rows in this table to match the number of zones.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2023-01-20T03:02:14.75" personId="{61290AA8-7CA1-4FCC-8E27-54D3C47D99F4}" id="{5EE386CB-0590-413C-9D95-B267FCE822D6}">
+    <text>Increase or decrease number of rows in this table to match the number of zones.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2023-01-20T03:02:14.75" personId="{61290AA8-7CA1-4FCC-8E27-54D3C47D99F4}" id="{A5D488A4-F612-4EEF-A5DA-F9DBC3BF5F1B}">
     <text>Increase or decrease number of rows in this table to match the number of zones.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6AE698-33EA-498C-8772-D419AC01F420}">
-  <sheetPr codeName="Sheet15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6663B4B7-8231-42DC-8CDD-7B6E4B8AFA00}">
+  <sheetPr codeName="Sheet17">
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="2"/>
+    <col min="16" max="16" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3717,7 +6575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -3728,15 +6586,15 @@
         <v>21</v>
       </c>
       <c r="D2" s="4">
-        <f>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU02_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MIN SA(CFM)])</f>
+        <f>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU04_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MIN SA(CFM)])</f>
         <v>380</v>
       </c>
       <c r="E2" s="3">
-        <f>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU02_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MAX SA(CFM)])</f>
+        <f>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU04_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MAX SA(CFM)])</f>
         <v>700</v>
       </c>
       <c r="F2" s="5">
-        <f>IFERROR((VLOOKUP(AHU02_VAV_table[[#This Row],[MAX VAV
+        <f>IFERROR((VLOOKUP(AHU04_VAV_table[[#This Row],[MAX VAV
 (CFM)]],'[1]DO NOT TOUCH'!$B$9:$C$14,2,TRUE)),"TBD")</f>
         <v>10</v>
       </c>
@@ -3744,7 +6602,7 @@
         <v>0.5</v>
       </c>
       <c r="H2" s="5">
-        <f>AHU02_VAV_table[[#This Row],[MIN VAV
+        <f>AHU04_VAV_table[[#This Row],[MIN VAV
 (CFM)]]</f>
         <v>380</v>
       </c>
@@ -3763,7 +6621,7 @@
         <v>80</v>
       </c>
       <c r="M2" s="5">
-        <f>MROUND((1.08*(L2-K2)*AHU02_VAV_table[[#This Row],[HEATING AIRFLOW 
+        <f>MROUND((1.08*(L2-K2)*AHU04_VAV_table[[#This Row],[HEATING AIRFLOW 
 (CFM)]])/1000,0.1)</f>
         <v>10.3</v>
       </c>
@@ -3790,7 +6648,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -3801,15 +6659,15 @@
         <v>21</v>
       </c>
       <c r="D3" s="4">
-        <f>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU02_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MIN SA(CFM)])</f>
+        <f>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU04_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MIN SA(CFM)])</f>
         <v>0</v>
       </c>
       <c r="E3" s="3">
-        <f>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU02_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MAX SA(CFM)])</f>
+        <f>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU04_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MAX SA(CFM)])</f>
         <v>0</v>
       </c>
       <c r="F3" s="5" t="str">
-        <f>IFERROR((VLOOKUP(AHU02_VAV_table[[#This Row],[MAX VAV
+        <f>IFERROR((VLOOKUP(AHU04_VAV_table[[#This Row],[MAX VAV
 (CFM)]],'[1]DO NOT TOUCH'!$B$9:$C$14,2,TRUE)),"TBD")</f>
         <v>TBD</v>
       </c>
@@ -3818,7 +6676,7 @@
         <v>0.5</v>
       </c>
       <c r="H3" s="5">
-        <f>AHU02_VAV_table[[#This Row],[MIN VAV
+        <f>AHU04_VAV_table[[#This Row],[MIN VAV
 (CFM)]]</f>
         <v>0</v>
       </c>
@@ -3839,7 +6697,7 @@
         <v>80</v>
       </c>
       <c r="M3" s="5">
-        <f>MROUND((1.08*(L3-K3)*AHU02_VAV_table[[#This Row],[HEATING AIRFLOW 
+        <f>MROUND((1.08*(L3-K3)*AHU04_VAV_table[[#This Row],[HEATING AIRFLOW 
 (CFM)]])/1000,0.1)</f>
         <v>0</v>
       </c>
@@ -3868,7 +6726,7 @@
         <v>1, 2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
@@ -3884,12 +6742,12 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9">
-        <f>SUBTOTAL(109,AHU02_VAV_table[MIN MBH])</f>
+        <f>SUBTOTAL(109,AHU04_VAV_table[MIN MBH])</f>
         <v>10.3</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="10">
-        <f>SUBTOTAL(109,AHU02_VAV_table[GPM])</f>
+        <f>SUBTOTAL(109,AHU04_VAV_table[GPM])</f>
         <v>1.0150000000000001</v>
       </c>
       <c r="P4" s="9"/>
@@ -3907,41 +6765,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58221B51-6DE0-40AC-94BF-8CE69F3AA18F}">
-  <sheetPr codeName="Sheet14">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4BEDE5-35D0-4997-9839-7326067874FF}">
+  <sheetPr codeName="Sheet16">
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="2"/>
+    <col min="16" max="16" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4000,7 +6858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -4011,15 +6869,15 @@
         <v>21</v>
       </c>
       <c r="D2" s="4">
-        <f>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU1_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MIN SA(CFM)])</f>
+        <f>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU03_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MIN SA(CFM)])</f>
         <v>380</v>
       </c>
       <c r="E2" s="3">
-        <f>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU1_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MAX SA(CFM)])</f>
+        <f>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU03_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MAX SA(CFM)])</f>
         <v>700</v>
       </c>
       <c r="F2" s="5">
-        <f>IFERROR((VLOOKUP(AHU1_VAV_table[[#This Row],[MAX VAV
+        <f>IFERROR((VLOOKUP(AHU03_VAV_table[[#This Row],[MAX VAV
 (CFM)]],'[1]DO NOT TOUCH'!$B$9:$C$14,2,TRUE)),"TBD")</f>
         <v>10</v>
       </c>
@@ -4027,7 +6885,7 @@
         <v>0.5</v>
       </c>
       <c r="H2" s="5">
-        <f>AHU1_VAV_table[[#This Row],[MIN VAV
+        <f>AHU03_VAV_table[[#This Row],[MIN VAV
 (CFM)]]</f>
         <v>380</v>
       </c>
@@ -4046,7 +6904,7 @@
         <v>80</v>
       </c>
       <c r="M2" s="5">
-        <f>MROUND((1.08*(L2-K2)*AHU1_VAV_table[[#This Row],[HEATING AIRFLOW 
+        <f>MROUND((1.08*(L2-K2)*AHU03_VAV_table[[#This Row],[HEATING AIRFLOW 
 (CFM)]])/1000,0.1)</f>
         <v>10.3</v>
       </c>
@@ -4073,7 +6931,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -4084,15 +6942,15 @@
         <v>21</v>
       </c>
       <c r="D3" s="4">
-        <f>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU1_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MIN SA(CFM)])</f>
+        <f>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU03_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MIN SA(CFM)])</f>
         <v>0</v>
       </c>
       <c r="E3" s="3">
-        <f>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU1_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MAX SA(CFM)])</f>
+        <f>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU03_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MAX SA(CFM)])</f>
         <v>0</v>
       </c>
       <c r="F3" s="5" t="str">
-        <f>IFERROR((VLOOKUP(AHU1_VAV_table[[#This Row],[MAX VAV
+        <f>IFERROR((VLOOKUP(AHU03_VAV_table[[#This Row],[MAX VAV
 (CFM)]],'[1]DO NOT TOUCH'!$B$9:$C$14,2,TRUE)),"TBD")</f>
         <v>TBD</v>
       </c>
@@ -4101,7 +6959,7 @@
         <v>0.5</v>
       </c>
       <c r="H3" s="5">
-        <f>AHU1_VAV_table[[#This Row],[MIN VAV
+        <f>AHU03_VAV_table[[#This Row],[MIN VAV
 (CFM)]]</f>
         <v>0</v>
       </c>
@@ -4122,7 +6980,7 @@
         <v>80</v>
       </c>
       <c r="M3" s="5">
-        <f>MROUND((1.08*(L3-K3)*AHU1_VAV_table[[#This Row],[HEATING AIRFLOW 
+        <f>MROUND((1.08*(L3-K3)*AHU03_VAV_table[[#This Row],[HEATING AIRFLOW 
 (CFM)]])/1000,0.1)</f>
         <v>0</v>
       </c>
@@ -4151,7 +7009,7 @@
         <v>1, 2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
@@ -4167,12 +7025,12 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9">
-        <f>SUBTOTAL(109,AHU1_VAV_table[MIN MBH])</f>
+        <f>SUBTOTAL(109,AHU03_VAV_table[MIN MBH])</f>
         <v>10.3</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="10">
-        <f>SUBTOTAL(109,AHU1_VAV_table[GPM])</f>
+        <f>SUBTOTAL(109,AHU03_VAV_table[GPM])</f>
         <v>1.0150000000000001</v>
       </c>
       <c r="P4" s="9"/>
@@ -4190,13 +7048,579 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C079F98B-A314-4615-9A7E-F6C80D32D45E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3147F271-B840-4933-A66B-9D1DBA4167AA}">
+  <sheetPr codeName="Sheet15">
+    <tabColor rgb="FF0000FF"/>
+  </sheetPr>
+  <dimension ref="A1:S4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU2_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MIN SA(CFM)])</f>
+        <v>380</v>
+      </c>
+      <c r="E2" s="3">
+        <f>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU2_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MAX SA(CFM)])</f>
+        <v>700</v>
+      </c>
+      <c r="F2" s="5">
+        <f>IFERROR((VLOOKUP(AHU2_VAV_table[[#This Row],[MAX VAV
+(CFM)]],'[1]DO NOT TOUCH'!$B$9:$C$14,2,TRUE)),"TBD")</f>
+        <v>10</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="5">
+        <f>AHU2_VAV_table[[#This Row],[MIN VAV
+(CFM)]]</f>
+        <v>380</v>
+      </c>
+      <c r="I2" s="5">
+        <f>[1]INPUT_OUTPUTS!$C$16</f>
+        <v>140</v>
+      </c>
+      <c r="J2" s="5">
+        <f>[1]INPUT_OUTPUTS!$C$17</f>
+        <v>100</v>
+      </c>
+      <c r="K2" s="5">
+        <v>55</v>
+      </c>
+      <c r="L2" s="5">
+        <v>80</v>
+      </c>
+      <c r="M2" s="5">
+        <f>MROUND((1.08*(L2-K2)*AHU2_VAV_table[[#This Row],[HEATING AIRFLOW 
+(CFM)]])/1000,0.1)</f>
+        <v>10.3</v>
+      </c>
+      <c r="N2" s="6">
+        <f>(M2*1000)/(500*(I2-J2))</f>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="O2" s="6">
+        <f>IF(N2&lt;0.5,0.5,N2)</f>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="P2" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="6">
+        <f>IFERROR((_xlfn.XLOOKUP(F2,'[1]DO NOT TOUCH'!$C$9:$C$14,'[1]DO NOT TOUCH'!$D$9:$D$14,)),"TBD")</f>
+        <v>35</v>
+      </c>
+      <c r="R2" s="6">
+        <f>[1]INPUT_OUTPUTS!$C$19</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4">
+        <f>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU2_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MIN SA(CFM)])</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <f>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU2_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MAX SA(CFM)])</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <f>IFERROR((VLOOKUP(AHU2_VAV_table[[#This Row],[MAX VAV
+(CFM)]],'[1]DO NOT TOUCH'!$B$9:$C$14,2,TRUE)),"TBD")</f>
+        <v>TBD</v>
+      </c>
+      <c r="G3" s="5">
+        <f>G2</f>
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="5">
+        <f>AHU2_VAV_table[[#This Row],[MIN VAV
+(CFM)]]</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <f>[1]INPUT_OUTPUTS!$C$16</f>
+        <v>140</v>
+      </c>
+      <c r="J3" s="5">
+        <f>[1]INPUT_OUTPUTS!$C$17</f>
+        <v>100</v>
+      </c>
+      <c r="K3" s="5">
+        <f>K2</f>
+        <v>55</v>
+      </c>
+      <c r="L3" s="5">
+        <f>L2</f>
+        <v>80</v>
+      </c>
+      <c r="M3" s="5">
+        <f>MROUND((1.08*(L3-K3)*AHU2_VAV_table[[#This Row],[HEATING AIRFLOW 
+(CFM)]])/1000,0.1)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <f>(M3*1000)/(500*(I3-J3))</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <f>IF(N3&lt;0.5,0.5,N3)</f>
+        <v>0.5</v>
+      </c>
+      <c r="P3" s="6">
+        <f>P2</f>
+        <v>5</v>
+      </c>
+      <c r="Q3" s="6" t="str">
+        <f>IFERROR((_xlfn.XLOOKUP(F3,'[1]DO NOT TOUCH'!$C$9:$C$14,'[1]DO NOT TOUCH'!$D$9:$D$14,)),"TBD")</f>
+        <v>TBD</v>
+      </c>
+      <c r="R3" s="6">
+        <f>[1]INPUT_OUTPUTS!$C$19</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="5" t="str">
+        <f>S2</f>
+        <v>1, 2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9">
+        <f>SUBTOTAL(109,AHU2_VAV_table[MIN MBH])</f>
+        <v>10.3</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="10">
+        <f>SUBTOTAL(109,AHU2_VAV_table[GPM])</f>
+        <v>1.0150000000000001</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99097E82-98B3-4BB8-B3C7-3AEAF8464602}">
+  <sheetPr codeName="Sheet14">
+    <tabColor rgb="FF0000FF"/>
+  </sheetPr>
+  <dimension ref="A1:S4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU001_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MIN SA(CFM)])</f>
+        <v>380</v>
+      </c>
+      <c r="E2" s="3">
+        <f>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU001_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MAX SA(CFM)])</f>
+        <v>700</v>
+      </c>
+      <c r="F2" s="5">
+        <f>IFERROR((VLOOKUP(AHU001_VAV_table[[#This Row],[MAX VAV
+(CFM)]],'[1]DO NOT TOUCH'!$B$9:$C$14,2,TRUE)),"TBD")</f>
+        <v>10</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="5">
+        <f>AHU001_VAV_table[[#This Row],[MIN VAV
+(CFM)]]</f>
+        <v>380</v>
+      </c>
+      <c r="I2" s="5">
+        <f>[1]INPUT_OUTPUTS!$C$16</f>
+        <v>140</v>
+      </c>
+      <c r="J2" s="5">
+        <f>[1]INPUT_OUTPUTS!$C$17</f>
+        <v>100</v>
+      </c>
+      <c r="K2" s="5">
+        <v>55</v>
+      </c>
+      <c r="L2" s="5">
+        <v>80</v>
+      </c>
+      <c r="M2" s="5">
+        <f>MROUND((1.08*(L2-K2)*AHU001_VAV_table[[#This Row],[HEATING AIRFLOW 
+(CFM)]])/1000,0.1)</f>
+        <v>10.3</v>
+      </c>
+      <c r="N2" s="6">
+        <f>(M2*1000)/(500*(I2-J2))</f>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="O2" s="6">
+        <f>IF(N2&lt;0.5,0.5,N2)</f>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="P2" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="6">
+        <f>IFERROR((_xlfn.XLOOKUP(F2,'[1]DO NOT TOUCH'!$C$9:$C$14,'[1]DO NOT TOUCH'!$D$9:$D$14,)),"TBD")</f>
+        <v>35</v>
+      </c>
+      <c r="R2" s="6">
+        <f>[1]INPUT_OUTPUTS!$C$19</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4">
+        <f>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU001_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MIN SA(CFM)])</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <f>SUMIF([1]!Ahu_Ashrae_Generic[Zone],AHU001_VAV_table[[#This Row],[ZONE]],[1]!Ahu_Ashrae_Generic[DESIGN VAV MAX SA(CFM)])</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <f>IFERROR((VLOOKUP(AHU001_VAV_table[[#This Row],[MAX VAV
+(CFM)]],'[1]DO NOT TOUCH'!$B$9:$C$14,2,TRUE)),"TBD")</f>
+        <v>TBD</v>
+      </c>
+      <c r="G3" s="5">
+        <f>G2</f>
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="5">
+        <f>AHU001_VAV_table[[#This Row],[MIN VAV
+(CFM)]]</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <f>[1]INPUT_OUTPUTS!$C$16</f>
+        <v>140</v>
+      </c>
+      <c r="J3" s="5">
+        <f>[1]INPUT_OUTPUTS!$C$17</f>
+        <v>100</v>
+      </c>
+      <c r="K3" s="5">
+        <f>K2</f>
+        <v>55</v>
+      </c>
+      <c r="L3" s="5">
+        <f>L2</f>
+        <v>80</v>
+      </c>
+      <c r="M3" s="5">
+        <f>MROUND((1.08*(L3-K3)*AHU001_VAV_table[[#This Row],[HEATING AIRFLOW 
+(CFM)]])/1000,0.1)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <f>(M3*1000)/(500*(I3-J3))</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <f>IF(N3&lt;0.5,0.5,N3)</f>
+        <v>0.5</v>
+      </c>
+      <c r="P3" s="6">
+        <f>P2</f>
+        <v>5</v>
+      </c>
+      <c r="Q3" s="6" t="str">
+        <f>IFERROR((_xlfn.XLOOKUP(F3,'[1]DO NOT TOUCH'!$C$9:$C$14,'[1]DO NOT TOUCH'!$D$9:$D$14,)),"TBD")</f>
+        <v>TBD</v>
+      </c>
+      <c r="R3" s="6">
+        <f>[1]INPUT_OUTPUTS!$C$19</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="5" t="str">
+        <f>S2</f>
+        <v>1, 2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9">
+        <f>SUBTOTAL(109,AHU001_VAV_table[MIN MBH])</f>
+        <v>10.3</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="10">
+        <f>SUBTOTAL(109,AHU001_VAV_table[GPM])</f>
+        <v>1.0150000000000001</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93472B0B-26B0-479D-8AE3-37CAFF421F25}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
